--- a/하루생각 테이블 명세(2021-06-29).xlsx
+++ b/하루생각 테이블 명세(2021-06-29).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\ADayMind-Project\aDayMind\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\ADayMind-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -526,6 +526,22 @@
   </si>
   <si>
     <t>fk_wa_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 출처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글가변문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_origin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1334,6 +1350,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1352,60 +1419,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1436,14 +1452,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,91 +2463,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="29"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <v>44376</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="30"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
     </row>
     <row r="6" spans="2:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="9" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2553,14 +2569,14 @@
       <c r="G11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:13" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23">
@@ -2581,12 +2597,12 @@
       <c r="G12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="20">
@@ -2599,12 +2615,12 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20">
@@ -2617,12 +2633,12 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20">
@@ -2635,12 +2651,12 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20">
@@ -2653,12 +2669,12 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="20">
@@ -2669,12 +2685,12 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
     </row>
     <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20">
@@ -2685,12 +2701,12 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
     </row>
     <row r="19" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="20">
@@ -2701,12 +2717,12 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
     </row>
     <row r="20" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="20">
@@ -2717,12 +2733,12 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20">
@@ -2733,12 +2749,12 @@
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="20">
@@ -2749,12 +2765,12 @@
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="20">
@@ -2765,12 +2781,12 @@
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="59"/>
     </row>
     <row r="24" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="20">
@@ -2781,12 +2797,12 @@
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="42"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="59"/>
     </row>
     <row r="25" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="20">
@@ -2797,12 +2813,12 @@
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="59"/>
     </row>
     <row r="26" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="20">
@@ -2813,12 +2829,12 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
     </row>
     <row r="27" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="20">
@@ -2829,12 +2845,12 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="59"/>
     </row>
     <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="20">
@@ -2845,12 +2861,12 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="59"/>
     </row>
     <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="20">
@@ -2861,12 +2877,12 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
     </row>
     <row r="30" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="20">
@@ -2877,12 +2893,12 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
     </row>
     <row r="31" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="20">
@@ -2893,12 +2909,12 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
     </row>
     <row r="32" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="20">
@@ -2909,12 +2925,12 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="59"/>
     </row>
     <row r="33" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="20">
@@ -2925,12 +2941,12 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="42"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="59"/>
     </row>
     <row r="34" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="20">
@@ -2941,12 +2957,12 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="59"/>
     </row>
     <row r="35" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="20">
@@ -2957,12 +2973,12 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20">
@@ -2973,12 +2989,12 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="42"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="59"/>
     </row>
     <row r="37" spans="2:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="21">
@@ -2989,34 +3005,15 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
     <mergeCell ref="H36:M36"/>
     <mergeCell ref="H37:M37"/>
     <mergeCell ref="J4:M4"/>
@@ -3033,6 +3030,25 @@
     <mergeCell ref="H29:M29"/>
     <mergeCell ref="H30:M30"/>
     <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4022,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4714,7 +4730,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="71"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="76" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="73"/>
@@ -4724,18 +4740,18 @@
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4951,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E6:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5643,7 +5659,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="71"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="76" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="73"/>
@@ -5882,10 +5898,18 @@
       <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -6608,7 +6632,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="71"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="76" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="73"/>
@@ -6618,18 +6642,18 @@
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7573,7 +7597,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="71"/>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="76" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="73"/>
@@ -7583,18 +7607,18 @@
       <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="2:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
